--- a/teaching/traditional_assets/database/data/norway/norway_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_entertainment.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-1.99968152866242</v>
+        <v>-0.6295071740486586</v>
       </c>
       <c r="H2">
-        <v>-2.28343949044586</v>
+        <v>-0.684341859014348</v>
       </c>
       <c r="I2">
-        <v>-2.573248407643312</v>
+        <v>-0.8683718028696193</v>
       </c>
       <c r="J2">
-        <v>-2.573248407643312</v>
+        <v>-0.8683718028696193</v>
       </c>
       <c r="K2">
-        <v>-6.36</v>
+        <v>-12.48</v>
       </c>
       <c r="L2">
-        <v>-2.025477707006369</v>
+        <v>-0.7785402370555209</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.080065294732555</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="AB2">
-        <v>0.080065294732555</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -660,22 +660,22 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001</v>
+        <v>0.143</v>
       </c>
       <c r="AM2">
-        <v>-0.102</v>
+        <v>-0.196</v>
       </c>
       <c r="AN2">
         <v>-0</v>
       </c>
       <c r="AO2">
-        <v>-8080</v>
+        <v>-97.34265734265735</v>
       </c>
       <c r="AP2">
         <v>-0</v>
       </c>
       <c r="AQ2">
-        <v>79.21568627450981</v>
+        <v>71.02040816326529</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +686,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kahoot! AS (OB:KAHOOT-ME)</t>
+          <t>Kahoot! AS (OB:KAHOT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -695,22 +695,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-1.99968152866242</v>
+        <v>-0.5344274809160305</v>
       </c>
       <c r="H3">
-        <v>-2.28343949044586</v>
+        <v>-0.601526717557252</v>
       </c>
       <c r="I3">
-        <v>-2.573248407643312</v>
+        <v>-0.7381679389312977</v>
       </c>
       <c r="J3">
-        <v>-2.573248407643312</v>
+        <v>-0.7381679389312977</v>
       </c>
       <c r="K3">
-        <v>-6.36</v>
+        <v>-8.08</v>
       </c>
       <c r="L3">
-        <v>-2.025477707006369</v>
+        <v>-0.6167938931297711</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.080065294732555</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="AB3">
-        <v>0.080065294732555</v>
+        <v>0.05843076096327017</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -764,22 +764,123 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.102</v>
+        <v>-0.338</v>
       </c>
       <c r="AN3">
         <v>-0</v>
       </c>
-      <c r="AO3">
-        <v>-8080</v>
-      </c>
       <c r="AP3">
         <v>-0</v>
       </c>
       <c r="AQ3">
-        <v>79.21568627450981</v>
+        <v>28.6094674556213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Play Magnus AS (OB:PMG)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-1.054607508532423</v>
+      </c>
+      <c r="H4">
+        <v>-1.054607508532423</v>
+      </c>
+      <c r="I4">
+        <v>-1.450511945392491</v>
+      </c>
+      <c r="J4">
+        <v>-1.450511945392491</v>
+      </c>
+      <c r="K4">
+        <v>-4.4</v>
+      </c>
+      <c r="L4">
+        <v>-1.501706484641638</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="AB4">
+        <v>0.05843076096327017</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0.143</v>
+      </c>
+      <c r="AM4">
+        <v>0.142</v>
+      </c>
+      <c r="AN4">
+        <v>-0</v>
+      </c>
+      <c r="AO4">
+        <v>-29.72027972027972</v>
+      </c>
+      <c r="AP4">
+        <v>-0</v>
+      </c>
+      <c r="AQ4">
+        <v>-29.92957746478874</v>
       </c>
     </row>
   </sheetData>
